--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackjin/Desktop/General_Information(HCSC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EB0FEF-9162-A148-93B7-A9567D587562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29DF37-C007-CB4F-ABC7-E712D7F99ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="-5960" windowWidth="51200" windowHeight="28300" xr2:uid="{3FBB0D40-6773-1F4A-9A3F-145880EFED3D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{3FBB0D40-6773-1F4A-9A3F-145880EFED3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Week 1</t>
   </si>
@@ -123,13 +123,73 @@
   </si>
   <si>
     <t>Group mega project</t>
+  </si>
+  <si>
+    <t>Week 0</t>
+  </si>
+  <si>
+    <t>Get Behmer approval and flesh out these plans</t>
+  </si>
+  <si>
+    <t>Individual Task</t>
+  </si>
+  <si>
+    <t>Overview of the interface</t>
+  </si>
+  <si>
+    <t>Nodes and Scenes</t>
+  </si>
+  <si>
+    <t>Instances and objects</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>Project Brainstorm -10 min</t>
+  </si>
+  <si>
+    <t>Week 23</t>
+  </si>
+  <si>
+    <t>Week 24</t>
+  </si>
+  <si>
+    <t>Week 25</t>
+  </si>
+  <si>
+    <t>Week 26</t>
+  </si>
+  <si>
+    <t>Week 27</t>
+  </si>
+  <si>
+    <t>Game Jam!! (Game off 2023)</t>
+  </si>
+  <si>
+    <t>Project Development</t>
+  </si>
+  <si>
+    <t>Project Presentation</t>
+  </si>
+  <si>
+    <t>Do the kick off slides</t>
+  </si>
+  <si>
+    <t>Brainstorm/kickoff -Make task list</t>
+  </si>
+  <si>
+    <t>work on it</t>
+  </si>
+  <si>
+    <t>https://docs.godotengine.org/en/stable/index.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,8 +203,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,8 +265,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -214,12 +277,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,202 +596,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802DDEDA-82B3-124A-93C3-FD474574FCC6}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="7" width="41.83203125" customWidth="1"/>
+    <col min="2" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="41.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="23" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    <row r="24" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="25" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{AD74A62B-1C8D-304A-89A9-AFDDAF468C82}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackjin/Desktop/General_Information(HCSC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29DF37-C007-CB4F-ABC7-E712D7F99ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54B121-09BF-B14A-8CFC-F09CA2FCCD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{3FBB0D40-6773-1F4A-9A3F-145880EFED3D}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{3FBB0D40-6773-1F4A-9A3F-145880EFED3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
